--- a/Flags_GHI.xlsx
+++ b/Flags_GHI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>GHI</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Consistência de parâmetros</t>
   </si>
   <si>
-    <t>Comparacao entre variaveis GHI</t>
-  </si>
-  <si>
     <t>Céu Claro</t>
   </si>
   <si>
@@ -61,7 +58,7 @@
     <t>Não disponível</t>
   </si>
   <si>
-    <t>20.0</t>
+    <t>7.0</t>
   </si>
   <si>
     <t>Não testado</t>
@@ -70,52 +67,46 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>23330.0</t>
+    <t>23958.0</t>
   </si>
   <si>
     <t>Anômalo</t>
   </si>
   <si>
-    <t>241.0</t>
-  </si>
-  <si>
-    <t>247.0</t>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
   </si>
   <si>
     <t>Suspeito</t>
   </si>
   <si>
-    <t>4247.0</t>
-  </si>
-  <si>
-    <t>597.0</t>
-  </si>
-  <si>
-    <t>780.0</t>
+    <t>7041.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
   </si>
   <si>
     <t>Bom</t>
   </si>
   <si>
-    <t>43180.0</t>
-  </si>
-  <si>
-    <t>42939.0</t>
-  </si>
-  <si>
-    <t>38692.0</t>
-  </si>
-  <si>
-    <t>19609.0</t>
-  </si>
-  <si>
-    <t>19012.0</t>
-  </si>
-  <si>
-    <t>18829.0</t>
-  </si>
-  <si>
-    <t>18823.0</t>
+    <t>43193.0</t>
+  </si>
+  <si>
+    <t>43174.0</t>
+  </si>
+  <si>
+    <t>36133.0</t>
+  </si>
+  <si>
+    <t>19216.0</t>
+  </si>
+  <si>
+    <t>19147.0</t>
+  </si>
+  <si>
+    <t>19145.0</t>
   </si>
 </sst>
 </file>
@@ -447,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,19 +449,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -478,19 +469,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -498,19 +489,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -518,19 +509,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -538,19 +529,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -558,19 +549,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,19 +569,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,19 +589,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -618,19 +609,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -638,19 +629,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -658,19 +649,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -678,19 +669,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -698,39 +689,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
